--- a/Client/Clear_2048/数据表/T_测试/TestEx2.xlsx
+++ b/Client/Clear_2048/数据表/T_测试/TestEx2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\game\FirstMiniGame\Client\Clear_2048\数据表\T_测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B14A2E-98F2-4C02-A75F-CB4C2C930A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3051DC-871E-4E28-809D-81477AE9325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2610" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28680" yWindow="3075" windowWidth="28680" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>badsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"asdfas"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -707,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
